--- a/data/trans_camb/P25_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_1-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 4,3</t>
+          <t>-2,62; 5,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,25</t>
+          <t>-2,15; 5,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,79</t>
+          <t>-0,98; 7,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,06</t>
+          <t>-4,51; 3,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,44</t>
+          <t>-4,09; 4,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,18</t>
+          <t>-2,66; 7,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 3,42</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 4,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 6,47</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>51,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>118,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>54,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>78,16%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 78,71</t>
+          <t>-62,15; 549,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 76,21</t>
+          <t>-54,48; 643,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,65; 94,0</t>
+          <t>-32,19; 821,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 130,15</t>
+          <t>-71,25; 242,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 54,08</t>
+          <t>-72,06; 268,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 67,7</t>
+          <t>-54,56; 414,92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-47,77; 169,95</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-42,74; 189,62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 302,28</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 2,44</t>
+          <t>-7,29; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,04</t>
+          <t>-7,4; 4,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,87</t>
+          <t>-4,2; 9,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,76</t>
+          <t>-5,56; 1,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,24</t>
+          <t>-4,94; 3,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,17</t>
+          <t>-3,06; 6,47</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 2,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 2,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 5,95</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-16,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,06%</t>
+          <t>-20,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,67%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-40,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>-18,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,25%</t>
+          <t>26,36%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-23,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,94%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 52,37</t>
+          <t>-69,72; 102,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 48,54</t>
+          <t>-70,8; 107,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 49,94</t>
+          <t>-45,62; 208,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,64; 90,06</t>
+          <t>-88,61; 189,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 27,88</t>
+          <t>-81,97; 218,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 50,19</t>
+          <t>-64,67; 393,65</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-63,57; 72,87</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-61,63; 82,15</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-36,07; 169,72</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 9,03</t>
+          <t>-15,65; 12,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 9,08</t>
+          <t>-16,63; 13,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 9,47</t>
+          <t>-14,87; 17,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 15,67</t>
+          <t>-15,43; 10,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 6,31</t>
+          <t>-13,88; 14,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,47</t>
+          <t>-11,85; 18,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 9,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 10,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 13,44</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-10,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-4,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-13,9%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 321,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,73; 352,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,54; 376,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 610,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 145,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,2; 191,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-83,56; 388,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-81,55; 438,68</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-73,42; 493,62</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,03</t>
+          <t>-2,97; 3,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,14</t>
+          <t>-3,1; 3,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,42</t>
+          <t>-1,03; 6,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,55</t>
+          <t>-3,69; 1,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,0</t>
+          <t>-2,98; 2,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,05</t>
+          <t>-1,47; 5,32</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 1,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 2,14</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 4,77</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,09%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>-22,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>45,67%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 35,72</t>
+          <t>-44,84; 96,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 36,34</t>
+          <t>-43,85; 90,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 33,89</t>
+          <t>-17,43; 169,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 82,77</t>
+          <t>-62,65; 72,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 17,68</t>
+          <t>-54,31; 112,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 36,91</t>
+          <t>-31,2; 194,87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-45,16; 46,0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; 60,29</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 126,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
